--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>USERNAME</t>
   </si>
@@ -44,6 +43,9 @@
   </si>
   <si>
     <t>Pxil@sit6</t>
+  </si>
+  <si>
+    <t>UPC_ANYDAY_1(B)</t>
   </si>
 </sst>
 </file>
@@ -464,10 +466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,6 +500,17 @@
         <v>45006</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
